--- a/datatables/Datas/#hero.xlsx
+++ b/datatables/Datas/#hero.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\luban_test\datatables\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\导表工具\datatables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -414,7 +414,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="271">
   <si>
     <t>id</t>
   </si>
@@ -450,6 +450,9 @@
   </si>
   <si>
     <t>sex</t>
+  </si>
+  <si>
+    <t>skill</t>
   </si>
   <si>
     <t>power</t>
@@ -1125,10 +1128,6 @@
   </si>
   <si>
     <t>带领兵种</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1180,147 +1179,154 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>##</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>##group</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>##</t>
+    <t>c,s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>skill</t>
+    <t>c</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>140220, 140210</t>
-  </si>
-  <si>
-    <t>150120, 150110, 150130, 150140</t>
-  </si>
-  <si>
-    <t>200, 150210, 150230, 150240</t>
-  </si>
-  <si>
-    <t>100, 150310, 150330, 150340</t>
-  </si>
-  <si>
-    <t>160120, 160110, 160130, 160140</t>
-  </si>
-  <si>
-    <t>100, 160210, 160230, 160240</t>
-  </si>
-  <si>
-    <t>160320, 160310, 160330, 160340</t>
-  </si>
-  <si>
-    <t>160420, 160410, 160430, 160440</t>
-  </si>
-  <si>
-    <t>160520, 160510, 160530, 160540</t>
-  </si>
-  <si>
-    <t>100, 240110</t>
-  </si>
-  <si>
-    <t>200, 240210</t>
-  </si>
-  <si>
-    <t>300, 250110, 250130, 250140</t>
-  </si>
-  <si>
-    <t>200, 250210, 250230, 250240</t>
-  </si>
-  <si>
-    <t>100, 250310, 250330, 250340</t>
-  </si>
-  <si>
-    <t>400, 260110, 260130, 260140</t>
-  </si>
-  <si>
-    <t>200, 260210, 260230, 260240</t>
-  </si>
-  <si>
-    <t>260320, 260310, 260330, 260340</t>
-  </si>
-  <si>
-    <t>260420, 260410, 260430, 260440</t>
-  </si>
-  <si>
-    <t>260520, 260510, 260530, 260540</t>
-  </si>
-  <si>
-    <t>200, 340110</t>
-  </si>
-  <si>
-    <t>200, 340210</t>
-  </si>
-  <si>
-    <t>100, 350110, 350130, 350140</t>
-  </si>
-  <si>
-    <t>350220, 350210, 350230, 350240</t>
-  </si>
-  <si>
-    <t>200, 350310, 350330, 350340</t>
-  </si>
-  <si>
-    <t>200, 360110, 360130, 360140</t>
-  </si>
-  <si>
-    <t>360220, 360210, 360230, 360240</t>
-  </si>
-  <si>
-    <t>300, 360310, 360330, 360340</t>
-  </si>
-  <si>
-    <t>360420, 360410, 360430, 360440</t>
-  </si>
-  <si>
-    <t>360520, 360510, 360530, 360540</t>
-  </si>
-  <si>
-    <t>360620, 360610, 360630, 360640</t>
-  </si>
-  <si>
-    <t>200, 440110</t>
-  </si>
-  <si>
-    <t>100, 440210</t>
-  </si>
-  <si>
-    <t>450220, 450110, 450130, 450140</t>
-  </si>
-  <si>
-    <t>450220, 450210, 450230, 450240</t>
-  </si>
-  <si>
-    <t>450320, 450310, 450330, 450340</t>
-  </si>
-  <si>
-    <t>200, 460110, 460130, 460140</t>
-  </si>
-  <si>
-    <t>460220, 460210, 460230, 460240</t>
-  </si>
-  <si>
-    <t>160120, 460310, 460330, 460340</t>
-  </si>
-  <si>
-    <t>100, 460410, 460430, 460440</t>
-  </si>
-  <si>
-    <t>460520, 460510, 460530, 460540</t>
-  </si>
-  <si>
-    <t>c,s</t>
-  </si>
-  <si>
-    <t>100, 140110</t>
+    <t>技能</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(array#sep=,),int</t>
   </si>
   <si>
     <t>(array#sep=,),int</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100, 140110</t>
+  </si>
+  <si>
+    <t>140220, 140210</t>
+  </si>
+  <si>
+    <t>150120, 150110, 150130, 150140</t>
+  </si>
+  <si>
+    <t>200, 150210, 150230, 150240</t>
+  </si>
+  <si>
+    <t>100, 150310, 150330, 150340</t>
+  </si>
+  <si>
+    <t>160120, 160110, 160130, 160140</t>
+  </si>
+  <si>
+    <t>100, 160210, 160230, 160240</t>
+  </si>
+  <si>
+    <t>160320, 160310, 160330, 160340</t>
+  </si>
+  <si>
+    <t>160420, 160410, 160430, 160440</t>
+  </si>
+  <si>
+    <t>160520, 160510, 160530, 160540</t>
+  </si>
+  <si>
+    <t>100, 240110</t>
+  </si>
+  <si>
+    <t>200, 240210</t>
+  </si>
+  <si>
+    <t>300, 250110, 250130, 250140</t>
+  </si>
+  <si>
+    <t>200, 250210, 250230, 250240</t>
+  </si>
+  <si>
+    <t>100, 250310, 250330, 250340</t>
+  </si>
+  <si>
+    <t>400, 260110, 260130, 260140</t>
+  </si>
+  <si>
+    <t>200, 260210, 260230, 260240</t>
+  </si>
+  <si>
+    <t>260320, 260310, 260330, 260340</t>
+  </si>
+  <si>
+    <t>260420, 260410, 260430, 260440</t>
+  </si>
+  <si>
+    <t>260520, 260510, 260530, 260540</t>
+  </si>
+  <si>
+    <t>200, 340110</t>
+  </si>
+  <si>
+    <t>200, 340210</t>
+  </si>
+  <si>
+    <t>100, 350110, 350130, 350140</t>
+  </si>
+  <si>
+    <t>350220, 350210, 350230, 350240</t>
+  </si>
+  <si>
+    <t>200, 350310, 350330, 350340</t>
+  </si>
+  <si>
+    <t>200, 360110, 360130, 360140</t>
+  </si>
+  <si>
+    <t>360220, 360210, 360230, 360240</t>
+  </si>
+  <si>
+    <t>300, 360310, 360330, 360340</t>
+  </si>
+  <si>
+    <t>360420, 360410, 360430, 360440</t>
+  </si>
+  <si>
+    <t>360520, 360510, 360530, 360540</t>
+  </si>
+  <si>
+    <t>360620, 360610, 360630, 360640</t>
+  </si>
+  <si>
+    <t>200, 440110</t>
+  </si>
+  <si>
+    <t>100, 440210</t>
+  </si>
+  <si>
+    <t>450220, 450110, 450130, 450140</t>
+  </si>
+  <si>
+    <t>450220, 450210, 450230, 450240</t>
+  </si>
+  <si>
+    <t>450320, 450310, 450330, 450340</t>
+  </si>
+  <si>
+    <t>200, 460110, 460130, 460140</t>
+  </si>
+  <si>
+    <t>460220, 460210, 460230, 460240</t>
+  </si>
+  <si>
+    <t>160120, 460310, 460330, 460340</t>
+  </si>
+  <si>
+    <t>100, 460410, 460430, 460440</t>
+  </si>
+  <si>
+    <t>460520, 460510, 460530, 460540</t>
   </si>
 </sst>
 </file>
@@ -1499,7 +1505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1532,6 +1538,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1886,10 +1899,10 @@
   <dimension ref="A1:AA61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T11" sqref="T11"/>
+      <selection pane="bottomRight" activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1899,14 +1912,14 @@
     <col min="15" max="15" width="8.5" customWidth="1"/>
     <col min="16" max="16" width="18.25" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.375" customWidth="1"/>
+    <col min="18" max="18" width="36.125" style="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.125" customWidth="1"/>
     <col min="20" max="20" width="13.25" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.75" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.625" customWidth="1"/>
     <col min="26" max="26" width="9.625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -1949,49 +1962,49 @@
         <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>225</v>
+        <v>78</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:27">
@@ -1999,227 +2012,227 @@
         <v>222</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="R2" s="16" t="s">
-        <v>268</v>
+        <v>194</v>
+      </c>
+      <c r="R2" s="19" t="s">
+        <v>229</v>
       </c>
       <c r="S2" s="16" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U2" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="V2" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="W2" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X2" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y2" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z2" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AA2" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="P3" s="16" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="R3" s="16" t="s">
-        <v>266</v>
+        <v>225</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>225</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="X3" s="16" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="Y3" s="16" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="Z3" s="16" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="AA3" s="16" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G4" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="I4" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>201</v>
-      </c>
       <c r="J4" s="16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="R4" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="R4" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="T4" s="16" t="s">
         <v>213</v>
-      </c>
-      <c r="S4" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="T4" s="16" t="s">
-        <v>212</v>
       </c>
       <c r="U4" s="16" t="s">
         <v>214</v>
@@ -2248,13 +2261,13 @@
         <v>1301</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2292,7 +2305,7 @@
       <c r="Q5">
         <v>200</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="20">
         <v>200</v>
       </c>
       <c r="S5">
@@ -2325,13 +2338,13 @@
         <v>1302</v>
       </c>
       <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>15</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2369,7 +2382,7 @@
       <c r="Q6">
         <v>200</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="20">
         <v>100</v>
       </c>
       <c r="S6">
@@ -2402,13 +2415,13 @@
         <v>1401</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2446,8 +2459,8 @@
       <c r="Q7">
         <v>200</v>
       </c>
-      <c r="R7" t="s">
-        <v>267</v>
+      <c r="R7" s="20" t="s">
+        <v>230</v>
       </c>
       <c r="S7">
         <v>20001</v>
@@ -2479,13 +2492,13 @@
         <v>1402</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2523,8 +2536,8 @@
       <c r="Q8">
         <v>200</v>
       </c>
-      <c r="R8" t="s">
-        <v>226</v>
+      <c r="R8" s="20" t="s">
+        <v>231</v>
       </c>
       <c r="S8">
         <v>20001</v>
@@ -2556,13 +2569,13 @@
         <v>1501</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2600,8 +2613,8 @@
       <c r="Q9">
         <v>200</v>
       </c>
-      <c r="R9" t="s">
-        <v>227</v>
+      <c r="R9" s="20" t="s">
+        <v>232</v>
       </c>
       <c r="S9">
         <v>20001</v>
@@ -2633,13 +2646,13 @@
         <v>1502</v>
       </c>
       <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
         <v>21</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2677,8 +2690,8 @@
       <c r="Q10">
         <v>200</v>
       </c>
-      <c r="R10" t="s">
-        <v>228</v>
+      <c r="R10" s="20" t="s">
+        <v>233</v>
       </c>
       <c r="S10">
         <v>20001</v>
@@ -2710,13 +2723,13 @@
         <v>1503</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2754,8 +2767,8 @@
       <c r="Q11">
         <v>200</v>
       </c>
-      <c r="R11" t="s">
-        <v>229</v>
+      <c r="R11" s="20" t="s">
+        <v>234</v>
       </c>
       <c r="S11">
         <v>20001</v>
@@ -2787,13 +2800,13 @@
         <v>1601</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2831,8 +2844,8 @@
       <c r="Q12">
         <v>200</v>
       </c>
-      <c r="R12" t="s">
-        <v>230</v>
+      <c r="R12" s="20" t="s">
+        <v>235</v>
       </c>
       <c r="S12">
         <v>20001</v>
@@ -2867,13 +2880,13 @@
         <v>1602</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2911,8 +2924,8 @@
       <c r="Q13">
         <v>200</v>
       </c>
-      <c r="R13" t="s">
-        <v>231</v>
+      <c r="R13" s="20" t="s">
+        <v>236</v>
       </c>
       <c r="S13">
         <v>20001</v>
@@ -2947,13 +2960,13 @@
         <v>1603</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2991,8 +3004,8 @@
       <c r="Q14">
         <v>200</v>
       </c>
-      <c r="R14" t="s">
-        <v>232</v>
+      <c r="R14" s="20" t="s">
+        <v>237</v>
       </c>
       <c r="S14">
         <v>20001</v>
@@ -3027,13 +3040,13 @@
         <v>1604</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -3071,8 +3084,8 @@
       <c r="Q15">
         <v>200</v>
       </c>
-      <c r="R15" t="s">
-        <v>233</v>
+      <c r="R15" s="20" t="s">
+        <v>238</v>
       </c>
       <c r="S15">
         <v>20001</v>
@@ -3107,13 +3120,13 @@
         <v>1605</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -3151,8 +3164,8 @@
       <c r="Q16">
         <v>200</v>
       </c>
-      <c r="R16" t="s">
-        <v>234</v>
+      <c r="R16" s="20" t="s">
+        <v>239</v>
       </c>
       <c r="S16">
         <v>20001</v>
@@ -3187,13 +3200,13 @@
         <v>2301</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -3231,7 +3244,7 @@
       <c r="Q17">
         <v>200</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="20">
         <v>200</v>
       </c>
       <c r="S17">
@@ -3264,13 +3277,13 @@
         <v>2302</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -3308,7 +3321,7 @@
       <c r="Q18">
         <v>200</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="20">
         <v>230220</v>
       </c>
       <c r="S18">
@@ -3341,13 +3354,13 @@
         <v>2401</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -3385,8 +3398,8 @@
       <c r="Q19">
         <v>200</v>
       </c>
-      <c r="R19" t="s">
-        <v>235</v>
+      <c r="R19" s="20" t="s">
+        <v>240</v>
       </c>
       <c r="S19">
         <v>20002</v>
@@ -3418,13 +3431,13 @@
         <v>2402</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -3462,8 +3475,8 @@
       <c r="Q20">
         <v>200</v>
       </c>
-      <c r="R20" t="s">
-        <v>236</v>
+      <c r="R20" s="20" t="s">
+        <v>241</v>
       </c>
       <c r="S20">
         <v>20002</v>
@@ -3495,13 +3508,13 @@
         <v>2501</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -3539,8 +3552,8 @@
       <c r="Q21">
         <v>200</v>
       </c>
-      <c r="R21" t="s">
-        <v>237</v>
+      <c r="R21" s="20" t="s">
+        <v>242</v>
       </c>
       <c r="S21">
         <v>20002</v>
@@ -3572,13 +3585,13 @@
         <v>2502</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -3616,8 +3629,8 @@
       <c r="Q22">
         <v>200</v>
       </c>
-      <c r="R22" t="s">
-        <v>238</v>
+      <c r="R22" s="20" t="s">
+        <v>243</v>
       </c>
       <c r="S22">
         <v>20002</v>
@@ -3649,13 +3662,13 @@
         <v>2503</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -3693,8 +3706,8 @@
       <c r="Q23">
         <v>200</v>
       </c>
-      <c r="R23" t="s">
-        <v>239</v>
+      <c r="R23" s="20" t="s">
+        <v>244</v>
       </c>
       <c r="S23">
         <v>20002</v>
@@ -3726,13 +3739,13 @@
         <v>2601</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -3770,8 +3783,8 @@
       <c r="Q24">
         <v>200</v>
       </c>
-      <c r="R24" t="s">
-        <v>240</v>
+      <c r="R24" s="20" t="s">
+        <v>245</v>
       </c>
       <c r="S24">
         <v>20002</v>
@@ -3806,13 +3819,13 @@
         <v>2602</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -3850,8 +3863,8 @@
       <c r="Q25">
         <v>200</v>
       </c>
-      <c r="R25" t="s">
-        <v>241</v>
+      <c r="R25" s="20" t="s">
+        <v>246</v>
       </c>
       <c r="S25">
         <v>20002</v>
@@ -3886,13 +3899,13 @@
         <v>2603</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -3930,8 +3943,8 @@
       <c r="Q26">
         <v>200</v>
       </c>
-      <c r="R26" t="s">
-        <v>242</v>
+      <c r="R26" s="20" t="s">
+        <v>247</v>
       </c>
       <c r="S26">
         <v>20002</v>
@@ -3966,13 +3979,13 @@
         <v>2604</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -4010,8 +4023,8 @@
       <c r="Q27">
         <v>200</v>
       </c>
-      <c r="R27" t="s">
-        <v>243</v>
+      <c r="R27" s="20" t="s">
+        <v>248</v>
       </c>
       <c r="S27">
         <v>20002</v>
@@ -4046,13 +4059,13 @@
         <v>2605</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -4090,8 +4103,8 @@
       <c r="Q28">
         <v>200</v>
       </c>
-      <c r="R28" t="s">
-        <v>244</v>
+      <c r="R28" s="20" t="s">
+        <v>249</v>
       </c>
       <c r="S28">
         <v>20002</v>
@@ -4126,13 +4139,13 @@
         <v>3301</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -4170,7 +4183,7 @@
       <c r="Q29">
         <v>200</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="20">
         <v>330120</v>
       </c>
       <c r="S29">
@@ -4203,13 +4216,13 @@
         <v>3302</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D30">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -4247,7 +4260,7 @@
       <c r="Q30">
         <v>200</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="20">
         <v>200</v>
       </c>
       <c r="S30">
@@ -4280,13 +4293,13 @@
         <v>3401</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -4324,8 +4337,8 @@
       <c r="Q31">
         <v>200</v>
       </c>
-      <c r="R31" t="s">
-        <v>245</v>
+      <c r="R31" s="20" t="s">
+        <v>250</v>
       </c>
       <c r="S31">
         <v>20003</v>
@@ -4357,13 +4370,13 @@
         <v>3402</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -4401,8 +4414,8 @@
       <c r="Q32">
         <v>200</v>
       </c>
-      <c r="R32" t="s">
-        <v>246</v>
+      <c r="R32" s="20" t="s">
+        <v>251</v>
       </c>
       <c r="S32">
         <v>20003</v>
@@ -4434,13 +4447,13 @@
         <v>3501</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -4478,8 +4491,8 @@
       <c r="Q33">
         <v>200</v>
       </c>
-      <c r="R33" t="s">
-        <v>247</v>
+      <c r="R33" s="20" t="s">
+        <v>252</v>
       </c>
       <c r="S33">
         <v>20003</v>
@@ -4511,13 +4524,13 @@
         <v>3502</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -4555,8 +4568,8 @@
       <c r="Q34">
         <v>200</v>
       </c>
-      <c r="R34" t="s">
-        <v>248</v>
+      <c r="R34" s="20" t="s">
+        <v>253</v>
       </c>
       <c r="S34">
         <v>20003</v>
@@ -4588,13 +4601,13 @@
         <v>3503</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D35">
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -4632,8 +4645,8 @@
       <c r="Q35">
         <v>200</v>
       </c>
-      <c r="R35" t="s">
-        <v>249</v>
+      <c r="R35" s="20" t="s">
+        <v>254</v>
       </c>
       <c r="S35">
         <v>20003</v>
@@ -4665,13 +4678,13 @@
         <v>3601</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D36">
         <v>3</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -4709,8 +4722,8 @@
       <c r="Q36">
         <v>200</v>
       </c>
-      <c r="R36" t="s">
-        <v>250</v>
+      <c r="R36" s="20" t="s">
+        <v>255</v>
       </c>
       <c r="S36">
         <v>20003</v>
@@ -4745,13 +4758,13 @@
         <v>3602</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D37">
         <v>3</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -4789,8 +4802,8 @@
       <c r="Q37">
         <v>200</v>
       </c>
-      <c r="R37" t="s">
-        <v>251</v>
+      <c r="R37" s="20" t="s">
+        <v>256</v>
       </c>
       <c r="S37">
         <v>20003</v>
@@ -4825,13 +4838,13 @@
         <v>3603</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -4869,8 +4882,8 @@
       <c r="Q38">
         <v>200</v>
       </c>
-      <c r="R38" t="s">
-        <v>252</v>
+      <c r="R38" s="20" t="s">
+        <v>257</v>
       </c>
       <c r="S38">
         <v>20003</v>
@@ -4905,13 +4918,13 @@
         <v>3604</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -4949,8 +4962,8 @@
       <c r="Q39">
         <v>200</v>
       </c>
-      <c r="R39" t="s">
-        <v>253</v>
+      <c r="R39" s="20" t="s">
+        <v>258</v>
       </c>
       <c r="S39">
         <v>20003</v>
@@ -4985,13 +4998,13 @@
         <v>3605</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -5029,8 +5042,8 @@
       <c r="Q40">
         <v>200</v>
       </c>
-      <c r="R40" t="s">
-        <v>254</v>
+      <c r="R40" s="20" t="s">
+        <v>259</v>
       </c>
       <c r="S40">
         <v>20003</v>
@@ -5065,13 +5078,13 @@
         <v>3606</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D41">
         <v>3</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -5109,8 +5122,8 @@
       <c r="Q41">
         <v>200</v>
       </c>
-      <c r="R41" t="s">
-        <v>255</v>
+      <c r="R41" s="20" t="s">
+        <v>260</v>
       </c>
       <c r="S41">
         <v>20003</v>
@@ -5145,13 +5158,13 @@
         <v>4301</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D42">
         <v>4</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -5189,7 +5202,7 @@
       <c r="Q42">
         <v>200</v>
       </c>
-      <c r="R42">
+      <c r="R42" s="20">
         <v>200</v>
       </c>
       <c r="S42">
@@ -5222,13 +5235,13 @@
         <v>4302</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D43">
         <v>4</v>
       </c>
       <c r="E43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -5266,7 +5279,7 @@
       <c r="Q43">
         <v>200</v>
       </c>
-      <c r="R43">
+      <c r="R43" s="20">
         <v>100</v>
       </c>
       <c r="S43">
@@ -5299,13 +5312,13 @@
         <v>4401</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D44">
         <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -5343,8 +5356,8 @@
       <c r="Q44">
         <v>200</v>
       </c>
-      <c r="R44" t="s">
-        <v>256</v>
+      <c r="R44" s="20" t="s">
+        <v>261</v>
       </c>
       <c r="S44">
         <v>20004</v>
@@ -5376,13 +5389,13 @@
         <v>4402</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D45">
         <v>4</v>
       </c>
       <c r="E45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -5420,8 +5433,8 @@
       <c r="Q45">
         <v>200</v>
       </c>
-      <c r="R45" t="s">
-        <v>257</v>
+      <c r="R45" s="20" t="s">
+        <v>262</v>
       </c>
       <c r="S45">
         <v>20004</v>
@@ -5453,13 +5466,13 @@
         <v>4501</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D46">
         <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -5497,8 +5510,8 @@
       <c r="Q46">
         <v>200</v>
       </c>
-      <c r="R46" t="s">
-        <v>258</v>
+      <c r="R46" s="20" t="s">
+        <v>263</v>
       </c>
       <c r="S46">
         <v>20004</v>
@@ -5530,13 +5543,13 @@
         <v>4502</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D47">
         <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -5574,8 +5587,8 @@
       <c r="Q47">
         <v>200</v>
       </c>
-      <c r="R47" t="s">
-        <v>259</v>
+      <c r="R47" s="20" t="s">
+        <v>264</v>
       </c>
       <c r="S47">
         <v>20004</v>
@@ -5607,13 +5620,13 @@
         <v>4503</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D48">
         <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -5651,8 +5664,8 @@
       <c r="Q48">
         <v>200</v>
       </c>
-      <c r="R48" t="s">
-        <v>260</v>
+      <c r="R48" s="20" t="s">
+        <v>265</v>
       </c>
       <c r="S48">
         <v>20004</v>
@@ -5684,13 +5697,13 @@
         <v>4601</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D49">
         <v>4</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -5728,8 +5741,8 @@
       <c r="Q49">
         <v>200</v>
       </c>
-      <c r="R49" t="s">
-        <v>261</v>
+      <c r="R49" s="20" t="s">
+        <v>266</v>
       </c>
       <c r="S49">
         <v>20004</v>
@@ -5764,13 +5777,13 @@
         <v>4602</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D50">
         <v>4</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -5808,8 +5821,8 @@
       <c r="Q50">
         <v>200</v>
       </c>
-      <c r="R50" t="s">
-        <v>262</v>
+      <c r="R50" s="20" t="s">
+        <v>267</v>
       </c>
       <c r="S50">
         <v>20004</v>
@@ -5844,13 +5857,13 @@
         <v>4603</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D51">
         <v>4</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -5888,8 +5901,8 @@
       <c r="Q51">
         <v>200</v>
       </c>
-      <c r="R51" t="s">
-        <v>263</v>
+      <c r="R51" s="20" t="s">
+        <v>268</v>
       </c>
       <c r="S51">
         <v>20004</v>
@@ -5924,13 +5937,13 @@
         <v>4604</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D52">
         <v>4</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -5968,8 +5981,8 @@
       <c r="Q52">
         <v>200</v>
       </c>
-      <c r="R52" t="s">
-        <v>264</v>
+      <c r="R52" s="20" t="s">
+        <v>269</v>
       </c>
       <c r="S52">
         <v>20004</v>
@@ -6004,13 +6017,13 @@
         <v>4605</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D53">
         <v>4</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -6048,8 +6061,8 @@
       <c r="Q53">
         <v>200</v>
       </c>
-      <c r="R53" t="s">
-        <v>265</v>
+      <c r="R53" s="20" t="s">
+        <v>270</v>
       </c>
       <c r="S53">
         <v>20004</v>
@@ -6084,13 +6097,13 @@
         <v>5001</v>
       </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F54">
         <v>2</v>
@@ -6128,7 +6141,7 @@
       <c r="Q54">
         <v>200</v>
       </c>
-      <c r="R54">
+      <c r="R54" s="20">
         <v>110</v>
       </c>
       <c r="U54">
@@ -6149,13 +6162,13 @@
         <v>5002</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F55">
         <v>2</v>
@@ -6193,7 +6206,7 @@
       <c r="Q55">
         <v>200</v>
       </c>
-      <c r="R55">
+      <c r="R55" s="20">
         <v>210</v>
       </c>
       <c r="U55">
@@ -6214,13 +6227,13 @@
         <v>5003</v>
       </c>
       <c r="C56" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F56">
         <v>2</v>
@@ -6258,7 +6271,7 @@
       <c r="Q56">
         <v>200</v>
       </c>
-      <c r="R56">
+      <c r="R56" s="20">
         <v>310</v>
       </c>
       <c r="U56">
@@ -6279,13 +6292,13 @@
         <v>5004</v>
       </c>
       <c r="C57" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F57">
         <v>2</v>
@@ -6323,7 +6336,7 @@
       <c r="Q57">
         <v>200</v>
       </c>
-      <c r="R57">
+      <c r="R57" s="20">
         <v>410</v>
       </c>
       <c r="U57">
@@ -6344,13 +6357,13 @@
         <v>5005</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F58">
         <v>2</v>
@@ -6388,7 +6401,7 @@
       <c r="Q58">
         <v>200</v>
       </c>
-      <c r="R58">
+      <c r="R58" s="20">
         <v>110</v>
       </c>
       <c r="U58">
@@ -6409,13 +6422,13 @@
         <v>5006</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F59">
         <v>2</v>
@@ -6453,7 +6466,7 @@
       <c r="Q59">
         <v>200</v>
       </c>
-      <c r="R59">
+      <c r="R59" s="20">
         <v>210</v>
       </c>
       <c r="U59">
@@ -6474,13 +6487,13 @@
         <v>5007</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F60">
         <v>2</v>
@@ -6518,7 +6531,7 @@
       <c r="Q60">
         <v>200</v>
       </c>
-      <c r="R60">
+      <c r="R60" s="20">
         <v>310</v>
       </c>
       <c r="U60">
@@ -6539,13 +6552,13 @@
         <v>6001</v>
       </c>
       <c r="C61" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F61">
         <v>2</v>
@@ -6583,7 +6596,7 @@
       <c r="Q61">
         <v>200</v>
       </c>
-      <c r="R61">
+      <c r="R61" s="20">
         <v>610</v>
       </c>
       <c r="U61">
@@ -6625,13 +6638,13 @@
         <v>4604</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1">
         <v>1</v>
@@ -6657,13 +6670,13 @@
         <v>1603</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -6689,13 +6702,13 @@
         <v>2601</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -6721,13 +6734,13 @@
         <v>3601</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -6753,13 +6766,13 @@
         <v>4601</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -6785,13 +6798,13 @@
         <v>1604</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -6817,13 +6830,13 @@
         <v>3606</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -6849,13 +6862,13 @@
         <v>2602</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -6881,13 +6894,13 @@
         <v>3604</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -6913,13 +6926,13 @@
         <v>1602</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -6945,13 +6958,13 @@
         <v>3605</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -6977,13 +6990,13 @@
         <v>2604</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -7009,13 +7022,13 @@
         <v>4501</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E13">
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -7041,13 +7054,13 @@
         <v>4603</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E14">
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -7073,13 +7086,13 @@
         <v>4605</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E15">
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -7105,13 +7118,13 @@
         <v>3603</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -7137,13 +7150,13 @@
         <v>1605</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -7169,13 +7182,13 @@
         <v>2503</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -7201,13 +7214,13 @@
         <v>1601</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -7233,13 +7246,13 @@
         <v>2502</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -7265,13 +7278,13 @@
         <v>2605</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -7297,13 +7310,13 @@
         <v>2501</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -7329,13 +7342,13 @@
         <v>4502</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E23">
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -7361,13 +7374,13 @@
         <v>3503</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E24">
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -7393,13 +7406,13 @@
         <v>1502</v>
       </c>
       <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
         <v>21</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
-        <v>20</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -7425,13 +7438,13 @@
         <v>3501</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E26">
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -7457,13 +7470,13 @@
         <v>1503</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -7489,13 +7502,13 @@
         <v>2401</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E28">
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -7521,13 +7534,13 @@
         <v>3401</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E29">
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -7553,13 +7566,13 @@
         <v>2603</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E30">
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -7585,13 +7598,13 @@
         <v>3602</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E31">
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -7617,13 +7630,13 @@
         <v>3402</v>
       </c>
       <c r="D32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E32">
         <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -7649,13 +7662,13 @@
         <v>2402</v>
       </c>
       <c r="D33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -7681,13 +7694,13 @@
         <v>4401</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E34">
         <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -7713,13 +7726,13 @@
         <v>4602</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E35">
         <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -7745,13 +7758,13 @@
         <v>4402</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E36">
         <v>4</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -7777,13 +7790,13 @@
         <v>1401</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -7809,13 +7822,13 @@
         <v>1501</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -7841,13 +7854,13 @@
         <v>2301</v>
       </c>
       <c r="D39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E39">
         <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -7873,13 +7886,13 @@
         <v>3502</v>
       </c>
       <c r="D40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E40">
         <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -7905,13 +7918,13 @@
         <v>4302</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E41">
         <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -7937,13 +7950,13 @@
         <v>4301</v>
       </c>
       <c r="D42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E42">
         <v>4</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -7969,13 +7982,13 @@
         <v>4503</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E43">
         <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -8001,13 +8014,13 @@
         <v>1301</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -8033,13 +8046,13 @@
         <v>1302</v>
       </c>
       <c r="D45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
         <v>15</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45" t="s">
-        <v>14</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -8065,13 +8078,13 @@
         <v>3302</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E46">
         <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -8097,13 +8110,13 @@
         <v>1402</v>
       </c>
       <c r="D47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
         <v>18</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47" t="s">
-        <v>17</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -8129,13 +8142,13 @@
         <v>3301</v>
       </c>
       <c r="D48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E48">
         <v>3</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -8161,13 +8174,13 @@
         <v>6001</v>
       </c>
       <c r="D49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -8193,13 +8206,13 @@
         <v>2302</v>
       </c>
       <c r="D50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E50">
         <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -8225,13 +8238,13 @@
         <v>5004</v>
       </c>
       <c r="D51" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -8257,13 +8270,13 @@
         <v>5002</v>
       </c>
       <c r="D52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -8289,13 +8302,13 @@
         <v>5001</v>
       </c>
       <c r="D53" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -8321,13 +8334,13 @@
         <v>5003</v>
       </c>
       <c r="D54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -8353,13 +8366,13 @@
         <v>5005</v>
       </c>
       <c r="D55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -8385,13 +8398,13 @@
         <v>5006</v>
       </c>
       <c r="D56" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -8417,13 +8430,13 @@
         <v>5007</v>
       </c>
       <c r="D57" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -8473,7 +8486,7 @@
         <v>1</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -8481,7 +8494,7 @@
         <v>1301</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L2">
         <v>680</v>
@@ -8492,7 +8505,7 @@
         <v>1302</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L3">
         <v>680</v>
@@ -8503,7 +8516,7 @@
         <v>1401</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L4">
         <v>800</v>
@@ -8514,7 +8527,7 @@
         <v>1402</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L5">
         <v>800</v>
@@ -8525,7 +8538,7 @@
         <v>1501</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L6">
         <v>930</v>
@@ -8536,7 +8549,7 @@
         <v>1502</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L7">
         <v>930</v>
@@ -8547,7 +8560,7 @@
         <v>1503</v>
       </c>
       <c r="K8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L8">
         <v>930</v>
@@ -8558,7 +8571,7 @@
         <v>1601</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L9">
         <v>980</v>
@@ -8569,7 +8582,7 @@
         <v>1602</v>
       </c>
       <c r="K10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L10">
         <v>1000</v>
@@ -8580,7 +8593,7 @@
         <v>1603</v>
       </c>
       <c r="K11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L11">
         <v>1000</v>
@@ -8591,7 +8604,7 @@
         <v>1604</v>
       </c>
       <c r="K12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L12">
         <v>980</v>
@@ -8602,7 +8615,7 @@
         <v>1605</v>
       </c>
       <c r="K13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L13">
         <v>1030</v>
@@ -8613,7 +8626,7 @@
         <v>2301</v>
       </c>
       <c r="K14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L14">
         <v>680</v>
@@ -8621,45 +8634,45 @@
     </row>
     <row r="15" spans="1:13">
       <c r="B15" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J15" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="J15" t="s">
-        <v>91</v>
-      </c>
       <c r="K15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B16">
         <v>680</v>
@@ -8700,7 +8713,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B18">
         <v>57</v>
@@ -8741,7 +8754,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B19">
         <v>24</v>
@@ -8782,7 +8795,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B20">
         <v>65</v>
@@ -8823,7 +8836,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B21">
         <v>67</v>
@@ -8965,21 +8978,21 @@
     <row r="33" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="34" spans="1:7">
       <c r="B34" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B35" s="6">
         <v>1047</v>
@@ -9004,7 +9017,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B37" s="6">
         <v>94</v>
@@ -9029,7 +9042,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B38" s="6">
         <v>64</v>
@@ -9054,7 +9067,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B39" s="6">
         <v>87</v>
@@ -9080,7 +9093,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B40" s="6">
         <v>110</v>
@@ -9232,457 +9245,457 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
